--- a/sms_new_mandeep.xlsx
+++ b/sms_new_mandeep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Madhukar Verma</t>
   </si>
   <si>
-    <t xml:space="preserve">JKR</t>
+    <t xml:space="preserve">YBB</t>
   </si>
   <si>
     <t xml:space="preserve">ENGLISH</t>
@@ -61,125 +61,10 @@
     <t xml:space="preserve">42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Hina Kanjiani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2050 Cross Creek Ct Allen 75013 TX USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fnu Balan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 Hovis Rd Hovis Rd 28164 Nc USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amanda Father - Vazquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116 cypress Vallejo Ca 94590 United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Schenck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohan Passi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4631 Gresham Drive, Eldorado Hills, 95762, CA, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohan Passi 4631 Gresham Drive Eldorado Hills 95762 CA USA 9169330761 Way of living (English) Bangladesh</t>
+    <t xml:space="preserve">KAMLESH PARIKH 601 SUNFLOWER 🌻 DR PFLUGERVILLE City - Texas United States Zip code - 78660 Mob no.5127726577 Gyan Ganga International order</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anantha Bass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anantha Bass 202 10404 salvia street Charlotte 28277 North Carolina United states 9804285429 Way of living (English) UNITED STATES OF AMERICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyagarajan Iyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyagarajan Iyer 6092 Elmbridge Dr San Jose 95129 Ca USA 9940103805 WhatsApp Way of living (English) Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janakkumar Babulal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gujarati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3220 1st Street, Rosenberg, Fort Bend, TX 77471, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janakkumar Babulal 3220 1st street Rosenberg Fort bend TX 77471 USA 0013617461786 Gujarati Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jatinder Das</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YBB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2027 Westmora ave.
-Stockton, CA 95210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sateesh Korrapati 41 463 concord rd Pewaukee 53072 Wi Usa 2622717335 Way of living (English)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurinder Singh Aulakh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punjabi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">698 N Plumas Dr, Mountain House, CA 95391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12096508105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naveen 4734 4734 Oregon acres cove, Sanford 4734 Oregon acres cove, Sanford 32771 Florida Usa 3212345161 Way of living (English)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandipkumar Bhupendralal Kapadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">605 West Third Street, Donalsonville, Georgia, 39845, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinesh Mohan Mekala Unit d 116 Enclave cir Bolingbrook 60440 Illinois Usa 3317579445 Way of living (English)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalie Romero 3201 Kaliste Saloom rd Lot 348 None 70508 Louisiana United States of America 3375526148 Way of living (English)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven 3870 n Riverview Dr Robstown Tx 79380 USA 3617289856 GG, English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Kanjiani 2050 Cross Creek Ct, Allen 75013 Texas USA 4049336392 Way of living (English)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAMLESH PARIKH 601 SUNFLOWER 🌻 DR PFLUGERVILLE City - Texas United States Zip code - 78660 Mob no.5127726577 Gyan Ganga International order</t>
   </si>
   <si>
     <t xml:space="preserve">अपना पूरा नाम | Name Kalpana Parekh पिता का नाम | Father s Name Tansukhlal Sheth मोबाईल नंबर | Mobile Number 5135056886 गाँव का नाम | Village Name Cincinnati अपने ऐरिया (मोहल्ला) का नाम | Area Name Fairfield तहसील का नाम | Block Cincinnati जिला का नाम | District Butler county राज्य का नाम | State USA पिन कोड नंबर | Pin Code 45014 बुक का नाम | Book Name &amp; LANGUAGE ज्ञान गंगा (हिंदी)</t>
@@ -241,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -291,19 +176,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -395,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,23 +332,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,13 +417,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.85"/>
@@ -627,28 +487,16 @@
       <c r="J2" s="12"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>20650442421</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="10"/>
       <c r="I3" s="4"/>
       <c r="J3" s="13"/>
@@ -658,313 +506,158 @@
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="10"/>
       <c r="I4" s="4"/>
       <c r="J4" s="13"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="10"/>
       <c r="I5" s="4"/>
       <c r="J5" s="13"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="10"/>
       <c r="I6" s="4"/>
       <c r="J6" s="13"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>20650442421</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="10"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="5"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="10"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="10"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="H10" s="10"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="5"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>9165478955</v>
-      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="10"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="5"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
-      <c r="B12" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="17" t="n">
-        <v>12096891489</v>
-      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="10"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
-      <c r="B13" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>44</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="10"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
-      <c r="B14" s="7" t="n">
-        <v>45156</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="19" t="n">
-        <v>2063260971</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="10"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,78 +671,78 @@
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
       <c r="G16" s="6"/>
       <c r="H16" s="10"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="10"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6"/>
       <c r="H18" s="10"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="9"/>
       <c r="G19" s="6"/>
       <c r="H19" s="10"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,78 +756,78 @@
       <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
       <c r="G21" s="6"/>
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="6"/>
       <c r="H23" s="10"/>
       <c r="I23" s="4"/>
       <c r="J23" s="5" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="6"/>
       <c r="H24" s="10"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,27 +841,27 @@
       <c r="H25" s="10"/>
       <c r="I25" s="4"/>
       <c r="J25" s="5" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
       <c r="G26" s="6"/>
       <c r="H26" s="10"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,10 +875,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,27 +892,27 @@
       <c r="H28" s="10"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="9"/>
       <c r="G29" s="6"/>
       <c r="H29" s="10"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,95 +926,10 @@
       <c r="H30" s="10"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sms_new_mandeep.xlsx
+++ b/sms_new_mandeep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -59,6 +59,36 @@
   </si>
   <si>
     <t xml:space="preserve">42729 Mayfair Park Ave Fremont Fremont 94538 California USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box 87301, Park Place, Houston, Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12814104622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Chelegbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6613 Guyer Street, Philadelphia, PA, Pennsylvania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13024705411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Vanmeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1909 Harper Rd, Beckley, WV 25801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13049196111</t>
   </si>
   <si>
     <t xml:space="preserve">KAMLESH PARIKH 601 SUNFLOWER 🌻 DR PFLUGERVILLE City - Texas United States Zip code - 78660 Mob no.5127726577 Gyan Ganga International order</t>
@@ -324,11 +354,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,10 +450,10 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.85"/>
@@ -521,12 +551,24 @@
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="4"/>
       <c r="J5" s="13"/>
@@ -536,12 +578,24 @@
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="4"/>
       <c r="J6" s="13"/>
@@ -551,23 +605,35 @@
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -575,12 +641,12 @@
       <c r="H8" s="10"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
@@ -588,7 +654,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
@@ -598,7 +664,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
@@ -611,7 +677,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
@@ -624,7 +690,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
@@ -637,10 +703,10 @@
       <c r="H13" s="10"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,10 +720,10 @@
       <c r="H14" s="10"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,10 +737,10 @@
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,10 +754,10 @@
       <c r="H16" s="10"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,10 +771,10 @@
       <c r="H17" s="10"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,10 +788,10 @@
       <c r="H18" s="10"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,10 +805,10 @@
       <c r="H19" s="10"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +822,10 @@
       <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,10 +839,10 @@
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,10 +856,10 @@
       <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,10 +873,10 @@
       <c r="H23" s="10"/>
       <c r="I23" s="4"/>
       <c r="J23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,10 +890,10 @@
       <c r="H24" s="10"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,10 +907,10 @@
       <c r="H25" s="10"/>
       <c r="I25" s="4"/>
       <c r="J25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,10 +924,10 @@
       <c r="H26" s="10"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,10 +941,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,10 +958,10 @@
       <c r="H28" s="10"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,10 +975,10 @@
       <c r="H29" s="10"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,10 +992,10 @@
       <c r="H30" s="10"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/sms_new_mandeep.xlsx
+++ b/sms_new_mandeep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">13049196111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSBT</t>
   </si>
   <si>
     <t xml:space="preserve">KAMLESH PARIKH 601 SUNFLOWER 🌻 DR PFLUGERVILLE City - Texas United States Zip code - 78660 Mob no.5127726577 Gyan Ganga International order</t>
@@ -297,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,10 +361,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,10 +452,10 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.85"/>
@@ -628,39 +630,78 @@
       <c r="J7" s="5"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2065044242</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2065044242</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2065044242</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
@@ -669,7 +710,7 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
@@ -703,10 +744,10 @@
       <c r="H13" s="10"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,10 +761,10 @@
       <c r="H14" s="10"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,10 +778,10 @@
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,10 +795,10 @@
       <c r="H16" s="10"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,14 +808,14 @@
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="10"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,10 +829,10 @@
       <c r="H18" s="10"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,10 +846,10 @@
       <c r="H19" s="10"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,10 +863,10 @@
       <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,10 +880,10 @@
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,10 +897,10 @@
       <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,10 +914,10 @@
       <c r="H23" s="10"/>
       <c r="I23" s="4"/>
       <c r="J23" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,10 +931,10 @@
       <c r="H24" s="10"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,16 +948,16 @@
       <c r="H25" s="10"/>
       <c r="I25" s="4"/>
       <c r="J25" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="16"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -924,10 +965,10 @@
       <c r="H26" s="10"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,10 +982,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,10 +999,10 @@
       <c r="H28" s="10"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,10 +1016,10 @@
       <c r="H29" s="10"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,10 +1033,10 @@
       <c r="H30" s="10"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/sms_new_mandeep.xlsx
+++ b/sms_new_mandeep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">BSBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGK</t>
   </si>
   <si>
     <t xml:space="preserve">KAMLESH PARIKH 601 SUNFLOWER 🌻 DR PFLUGERVILLE City - Texas United States Zip code - 78660 Mob no.5127726577 Gyan Ganga International order</t>
@@ -364,12 +367,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -452,10 +455,10 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.85"/>
@@ -707,14 +710,26 @@
       <c r="J10" s="5"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>2065044242</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
@@ -744,10 +759,10 @@
       <c r="H13" s="10"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,10 +776,10 @@
       <c r="H14" s="10"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,10 +793,10 @@
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,10 +810,10 @@
       <c r="H16" s="10"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,14 +823,14 @@
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="10"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,10 +844,10 @@
       <c r="H18" s="10"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,10 +861,10 @@
       <c r="H19" s="10"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,10 +878,10 @@
       <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,10 +895,10 @@
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,10 +912,10 @@
       <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,10 +929,10 @@
       <c r="H23" s="10"/>
       <c r="I23" s="4"/>
       <c r="J23" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,10 +946,10 @@
       <c r="H24" s="10"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,16 +963,16 @@
       <c r="H25" s="10"/>
       <c r="I25" s="4"/>
       <c r="J25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -965,10 +980,10 @@
       <c r="H26" s="10"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,10 +997,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,10 +1014,10 @@
       <c r="H28" s="10"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,10 +1031,10 @@
       <c r="H29" s="10"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,10 +1048,10 @@
       <c r="H30" s="10"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/sms_new_mandeep.xlsx
+++ b/sms_new_mandeep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Madhukar Verma</t>
   </si>
   <si>
-    <t xml:space="preserve">YBB</t>
+    <t xml:space="preserve">GG</t>
   </si>
   <si>
     <t xml:space="preserve">ENGLISH</t>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">David</t>
   </si>
   <si>
-    <t xml:space="preserve">GG</t>
-  </si>
-  <si>
     <t xml:space="preserve">PO Box 87301, Park Place, Houston, Texas</t>
   </si>
   <si>
@@ -89,15 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">13049196111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGK</t>
   </si>
   <si>
     <t xml:space="preserve">KAMLESH PARIKH 601 SUNFLOWER 🌻 DR PFLUGERVILLE City - Texas United States Zip code - 78660 Mob no.5127726577 Gyan Ganga International order</t>
@@ -455,7 +443,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,16 +551,16 @@
         <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="4"/>
@@ -587,19 +575,19 @@
         <v>45154</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="4"/>
@@ -614,122 +602,74 @@
         <v>45154</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="10"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
-      <c r="B9" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="10"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="10"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="7" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>2065044242</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="10"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
@@ -759,10 +699,10 @@
       <c r="H13" s="10"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,10 +716,10 @@
       <c r="H14" s="10"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,10 +733,10 @@
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,10 +750,10 @@
       <c r="H16" s="10"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,10 +767,10 @@
       <c r="H17" s="10"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,10 +784,10 @@
       <c r="H18" s="10"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,10 +801,10 @@
       <c r="H19" s="10"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,10 +818,10 @@
       <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,10 +835,10 @@
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,10 +852,10 @@
       <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,10 +869,10 @@
       <c r="H23" s="10"/>
       <c r="I23" s="4"/>
       <c r="J23" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,10 +886,10 @@
       <c r="H24" s="10"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,10 +903,10 @@
       <c r="H25" s="10"/>
       <c r="I25" s="4"/>
       <c r="J25" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,10 +920,10 @@
       <c r="H26" s="10"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,10 +937,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,10 +954,10 @@
       <c r="H28" s="10"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,10 +971,10 @@
       <c r="H29" s="10"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,10 +988,10 @@
       <c r="H30" s="10"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sms_new_mandeep.xlsx
+++ b/sms_new_mandeep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -88,16 +88,64 @@
     <t xml:space="preserve">13049196111</t>
   </si>
   <si>
-    <t xml:space="preserve">KAMLESH PARIKH 601 SUNFLOWER 🌻 DR PFLUGERVILLE City - Texas United States Zip code - 78660 Mob no.5127726577 Gyan Ganga International order</t>
+    <t xml:space="preserve">JKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hina Kanjiani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2050 Cross Creek Ct Allen 75013 TX USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fnu Balan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 Hovis Rd Hovis Rd 28164 Nc USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Father - Vazquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116 cypress Vallejo Ca 94590 United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Schenck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">408 210 5th avenue south Saint Petersburg 33701 Florida United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohan Passi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4631 Gresham Drive, Eldorado Hills, 95762, CA, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohan Passi 4631 Gresham Drive Eldorado Hills 95762 CA USA 9169330761 Way of living (English) Bangladesh</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">अपना पूरा नाम | Name Kalpana Parekh पिता का नाम | Father s Name Tansukhlal Sheth मोबाईल नंबर | Mobile Number 5135056886 गाँव का नाम | Village Name Cincinnati अपने ऐरिया (मोहल्ला) का नाम | Area Name Fairfield तहसील का नाम | Block Cincinnati जिला का नाम | District Butler county राज्य का नाम | State USA पिन कोड नंबर | Pin Code 45014 बुक का नाम | Book Name &amp; LANGUAGE ज्ञान गंगा (हिंदी)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay jalaram Rajesh Patel 23 Cedar Meadow ln Media pa 19063 USA Phone number 6093846425 Gujarati Gyan Ganga</t>
+    <t xml:space="preserve">Anantha Bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 10404 Salvia Street, Charlotte, 28277, North Carolina, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anantha Bass 202 10404 salvia street Charlotte 28277 North Carolina United states 9804285429 Way of living (English) UNITED STATES OF AMERICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thyagarajan Iyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6092 Elmbridge Dr, San Jose, 95129, CA, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thyagarajan Iyer 6092 Elmbridge Dr San Jose 95129 Ca USA 9940103805 WhatsApp Way of living (English) Bangladesh</t>
   </si>
   <si>
     <t xml:space="preserve">Chris Weston Dick Weston PO Box 185 (605 Hodges Rd), Phillipsville, CA 95559 USA Southern Humboldt County California 95559 7072232226 USA English</t>
@@ -443,10 +491,10 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.85"/>
@@ -625,12 +673,24 @@
       <c r="A8" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>6509194563</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
@@ -638,12 +698,24 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>6825577801</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
@@ -651,12 +723,24 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>7046528713</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
@@ -664,12 +748,24 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>70765674356</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
@@ -677,12 +773,24 @@
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>7273310529</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
@@ -690,53 +798,89 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>9169330761</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>9804285429</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="7" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>9940103805</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,10 +894,10 @@
       <c r="H16" s="10"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,10 +911,10 @@
       <c r="H17" s="10"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,10 +928,10 @@
       <c r="H18" s="10"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,10 +945,10 @@
       <c r="H19" s="10"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,10 +962,10 @@
       <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,10 +979,10 @@
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,10 +996,10 @@
       <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,10 +1013,10 @@
       <c r="H23" s="10"/>
       <c r="I23" s="4"/>
       <c r="J23" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,10 +1030,10 @@
       <c r="H24" s="10"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,10 +1047,10 @@
       <c r="H25" s="10"/>
       <c r="I25" s="4"/>
       <c r="J25" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,10 +1064,10 @@
       <c r="H26" s="10"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,10 +1081,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,10 +1098,10 @@
       <c r="H28" s="10"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,10 +1115,10 @@
       <c r="H29" s="10"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,10 +1132,10 @@
       <c r="H30" s="10"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
